--- a/src/main/resources/xlsx/reporteDeuda.xlsx
+++ b/src/main/resources/xlsx/reporteDeuda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-Cenpro\git\CBPPAG\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB7C0B11-7F33-428C-8EE8-7F3F0DCDEEE3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FA7FFADD-0CB3-42BB-87DB-86D84E1FBE20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="6660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DETALLE" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Fecha Gen. Num. Reg.</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">${codigoAlumno} </t>
+  </si>
+  <si>
+    <t>${codigoAlumno}</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;S/.&quot;\ #,##0.00;&quot;S/.&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$S/.-280A]\ #,##0.00;[$S/.-280A]\ \-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -463,6 +466,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,9 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,48 +931,48 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -987,7 +990,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="20" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1056,10 +1059,10 @@
       <c r="E12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="31" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="28" t="s">
@@ -1124,8 +1127,8 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -1137,80 +1140,80 @@
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
